--- a/output.xlsx
+++ b/output.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerpetit\PycharmProjects\uiPoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\PycharmProjects\uiPoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DCDBCC-BD34-4374-972A-9253902F8F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA38283-513B-4C92-A3DC-494B03E7B5CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$85</definedName>
+  </definedNames>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>FCP</t>
   </si>
@@ -291,13 +294,37 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>generationMethod : FORWARD---&gt; BACKWARD</t>
+  </si>
+  <si>
+    <t>reconciliation</t>
+  </si>
+  <si>
+    <t>businessDayConvention : none ---&gt;modfollowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">businessDayConvention : none ---&gt;modfollowing </t>
+  </si>
+  <si>
+    <t>isAdjusted : false ---&gt; true</t>
+  </si>
+  <si>
+    <t>Frequency : 1M ----&gt;3M</t>
+  </si>
+  <si>
+    <t>end Date : 2021-07-06 ----&gt; 2021-05-06</t>
+  </si>
+  <si>
+    <t>no match ???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +339,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF660E7A"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,13 +394,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,21 +754,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F85"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,8 +788,11 @@
       <c r="F1" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -768,8 +812,11 @@
         <f>D2-E2</f>
         <v>-13.704793762810368</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -789,8 +836,11 @@
         <f t="shared" ref="F3:F66" si="0">D3-E3</f>
         <v>25.820284155041918</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -810,8 +860,11 @@
         <f t="shared" si="0"/>
         <v>-6.9741892842503148</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -832,7 +885,7 @@
         <v>-8475.712277460214</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -853,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -873,8 +926,11 @@
         <f t="shared" si="0"/>
         <v>-6.1743068732321262</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -889,7 +945,7 @@
         <v>1038797.955159337</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -909,8 +965,11 @@
         <f t="shared" si="0"/>
         <v>62.817170579859521</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -930,8 +989,11 @@
         <f t="shared" si="0"/>
         <v>-1.6954389056772925</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -951,8 +1013,14 @@
         <f t="shared" si="0"/>
         <v>-910.25050899543567</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -972,8 +1040,14 @@
         <f t="shared" si="0"/>
         <v>-573.69218717844342</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -993,8 +1067,14 @@
         <f t="shared" si="0"/>
         <v>-870.12094049941516</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1009,7 +1089,7 @@
         <v>-36908.998958395212</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1024,7 +1104,7 @@
         <v>22222.734946525819</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1039,7 +1119,7 @@
         <v>28441.74763118089</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1057,7 +1137,7 @@
         <v>-13574.74960934726</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1075,7 +1155,7 @@
         <v>-52565.354159566283</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1096,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1117,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1138,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1153,7 +1233,7 @@
         <v>-231541.3612815809</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1168,7 +1248,7 @@
         <v>-419589.61766001489</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1188,8 +1268,14 @@
         <f t="shared" si="0"/>
         <v>7.995717297308147E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1210,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1228,7 +1314,7 @@
         <v>-22301.096028146279</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1246,7 +1332,7 @@
         <v>-12090.473221742781</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1264,7 +1350,7 @@
         <v>-25473.934684991949</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1282,7 +1368,7 @@
         <v>-28042.140096146821</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1303,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1323,8 +1409,14 @@
         <f t="shared" si="0"/>
         <v>7.215061415990931E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1345,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1365,8 +1457,11 @@
         <f t="shared" si="0"/>
         <v>-0.77128372051811311</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1378,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1399,7 +1494,7 @@
         <v>7464.7852658121992</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1419,8 +1514,17 @@
         <f t="shared" si="0"/>
         <v>463.32039727773008</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1440,8 +1544,11 @@
         <f t="shared" si="0"/>
         <v>641.35300485681</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1461,8 +1568,14 @@
         <f t="shared" si="0"/>
         <v>484.1829227492708</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1483,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1498,7 +1611,7 @@
         <v>-27126.200473452282</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1513,7 +1626,7 @@
         <v>-5089172.6541301999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1528,7 +1641,7 @@
         <v>1987846.986236074</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1543,7 +1656,7 @@
         <v>-23111.463988908879</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1558,7 +1671,7 @@
         <v>30597.917868696659</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1579,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1594,7 +1707,7 @@
         <v>-28145.278065674662</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1615,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1636,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1657,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1672,7 +1785,7 @@
         <v>-29873.609434207781</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1687,7 +1800,7 @@
         <v>-29876.284964750888</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1702,7 +1815,7 @@
         <v>-27541.859608668139</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1717,7 +1830,7 @@
         <v>-27544.44816213693</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1732,7 +1845,7 @@
         <v>-28235.37937930099</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1747,7 +1860,7 @@
         <v>-27008.664528882429</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1762,7 +1875,7 @@
         <v>-24888.759769288099</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1777,7 +1890,7 @@
         <v>-24372.144251202091</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1792,7 +1905,7 @@
         <v>-975511.06363978493</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1807,7 +1920,7 @@
         <v>34612.372454813201</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1822,7 +1935,7 @@
         <v>35010.436151150083</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1837,7 +1950,7 @@
         <v>36587.285055837187</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1852,7 +1965,7 @@
         <v>36566.747586937963</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1867,7 +1980,7 @@
         <v>-11310.557522452469</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1882,7 +1995,7 @@
         <v>11013.72694840927</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1897,7 +2010,7 @@
         <v>-27874.277641739329</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1912,7 +2025,7 @@
         <v>-231593.93942186871</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1930,7 +2043,7 @@
         <v>954029.02</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1948,7 +2061,7 @@
         <v>2211996.2599999998</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1966,7 +2079,7 @@
         <v>-2478494.92</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1984,7 +2097,7 @@
         <v>31001.41</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2002,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2020,7 +2133,7 @@
         <v>-175641.89</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2038,7 +2151,7 @@
         <v>-167122.65</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2056,7 +2169,7 @@
         <v>1442409.33</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2071,7 +2184,7 @@
         <v>13159803.23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2086,7 +2199,7 @@
         <v>51059320.140000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2101,7 +2214,7 @@
         <v>39557590.770000003</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2119,7 +2232,7 @@
         <v>13159803.23</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2137,7 +2250,7 @@
         <v>1152758.7437711961</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2152,7 +2265,7 @@
         <v>-10410.816678044501</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2167,7 +2280,7 @@
         <v>-68421.22695063315</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2182,7 +2295,7 @@
         <v>-71021.73203032311</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2197,7 +2310,7 @@
         <v>-28013.758190080931</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2218,7 +2331,7 @@
         <v>53080.958321272454</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2237,11 +2350,34 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
+  <autoFilter ref="F1:F85" xr:uid="{181F4067-0FC5-494F-AB54-8A9F7C9044E1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+        <filter val="0,072150614"/>
+        <filter val="0,079957173"/>
+        <filter val="-0,771283721"/>
+        <filter val="-1,695438906"/>
+        <filter val="-13,70479376"/>
+        <filter val="25,82028416"/>
+        <filter val="463,3203973"/>
+        <filter val="484,1829227"/>
+        <filter val="-573,6921872"/>
+        <filter val="-6,174306873"/>
+        <filter val="-6,974189284"/>
+        <filter val="62,81717058"/>
+        <filter val="641,3530049"/>
+        <filter val="-870,1209405"/>
+        <filter val="-910,250509"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="F1:F1048576 G1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerpetit\PycharmProjects\uiPoc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DCDBCC-BD34-4374-972A-9253902F8F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>FCP</t>
   </si>
   <si>
+    <t>Master</t>
+  </si>
+  <si>
     <t>Kenibo427</t>
   </si>
   <si>
@@ -41,6 +31,9 @@
     <t>SB_trade</t>
   </si>
   <si>
+    <t>diff</t>
+  </si>
+  <si>
     <t>IRS_Vanilla_01</t>
   </si>
   <si>
@@ -288,16 +281,13 @@
   </si>
   <si>
     <t>IRS_XCCY_08</t>
-  </si>
-  <si>
-    <t>diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -345,54 +335,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -439,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,27 +428,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,24 +462,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,22 +637,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,1504 +657,1385 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
+        <v>6112</v>
+      </c>
+      <c r="D2">
         <v>6210</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>15752.1853710944</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>15765.89016485721</v>
       </c>
-      <c r="F2">
-        <f>D2-E2</f>
-        <v>-13.704793762810368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>13.70479376281219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
+        <v>6113</v>
+      </c>
+      <c r="D3">
         <v>6284</v>
       </c>
-      <c r="D3">
-        <v>-4158.7318722018581</v>
-      </c>
       <c r="E3">
+        <v>-4158.731872201858</v>
+      </c>
+      <c r="F3">
         <v>-4184.5521563569</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">D3-E3</f>
-        <v>25.820284155041918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>-25.82028415504192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
+        <v>6114</v>
+      </c>
+      <c r="D4">
         <v>6285</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-14120.78539767431</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-14113.81120839006</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-6.9741892842503148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>6.974189284248496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
+        <v>6115</v>
+      </c>
+      <c r="D5">
         <v>6211</v>
       </c>
-      <c r="D5">
-        <v>-3078.2371161844299</v>
-      </c>
       <c r="E5">
-        <v>5397.4751612757846</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-8475.712277460214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-3065.483120628508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
+        <v>6116</v>
+      </c>
+      <c r="D6">
         <v>6212</v>
-      </c>
-      <c r="D6">
-        <v>15385.26799406682</v>
       </c>
       <c r="E6">
         <v>15385.26799406682</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <v>15385.26799406682</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
+        <v>6117</v>
+      </c>
+      <c r="D7">
         <v>6213</v>
       </c>
-      <c r="D7">
-        <v>18494.877133614249</v>
-      </c>
       <c r="E7">
-        <v>18501.051440487481</v>
+        <v>18494.87713361425</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-6.1743068732321262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18501.05144048748</v>
+      </c>
+      <c r="G7">
+        <v>6.174306873232126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
         <v>1038797.955159337</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1038797.955159337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
+        <v>6119</v>
+      </c>
+      <c r="D9">
         <v>6214</v>
       </c>
-      <c r="D9">
-        <v>-81026.934439642399</v>
-      </c>
       <c r="E9">
-        <v>-81089.751610222258</v>
+        <v>-81026.9344396424</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>62.817170579859521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-81089.75161022226</v>
+      </c>
+      <c r="G9">
+        <v>-62.81717057985952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10">
+        <v>6120</v>
+      </c>
+      <c r="D10">
         <v>6215</v>
       </c>
-      <c r="D10">
-        <v>-6222.1985248864057</v>
-      </c>
       <c r="E10">
-        <v>-6220.5030859807284</v>
+        <v>-6222.198524886406</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>-1.6954389056772925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-6220.503085980728</v>
+      </c>
+      <c r="G10">
+        <v>1.695438905677292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
+        <v>6121</v>
+      </c>
+      <c r="D11">
         <v>6216</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-80349.83649332654</v>
       </c>
-      <c r="E11">
-        <v>-79439.585984331105</v>
-      </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>-910.25050899543567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-79439.5859843311</v>
+      </c>
+      <c r="G11">
+        <v>910.2505089954357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
+        <v>6122</v>
+      </c>
+      <c r="D12">
         <v>6217</v>
       </c>
-      <c r="D12">
-        <v>-84106.877762702148</v>
-      </c>
       <c r="E12">
-        <v>-83533.185575523705</v>
+        <v>-84106.87776270215</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>-573.69218717844342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-83533.1855755237</v>
+      </c>
+      <c r="G12">
+        <v>573.6921871784434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13">
+        <v>6123</v>
+      </c>
+      <c r="D13">
         <v>6218</v>
       </c>
-      <c r="D13">
-        <v>-68730.822274630395</v>
-      </c>
       <c r="E13">
-        <v>-67860.701334130979</v>
+        <v>-68730.82227463039</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-870.12094049941516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-67860.70133413098</v>
+      </c>
+      <c r="G13">
+        <v>870.1209404994152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>-36908.998958395212</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>-36908.998958395212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>-36908.99895839521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>22222.734946525819</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>22222.734946525819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>22222.73494652582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
         <v>28441.74763118089</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>28441.74763118089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17">
+        <v>6124</v>
+      </c>
+      <c r="D17">
         <v>6219</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-13574.74960934726</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>-13574.74960934726</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18">
+        <v>6125</v>
+      </c>
+      <c r="D18">
         <v>6220</v>
       </c>
-      <c r="D18">
-        <v>-52565.354159566283</v>
+      <c r="E18">
+        <v>-52565.35415956628</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>-52565.354159566283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-56770.28745149922</v>
+      </c>
+      <c r="G18">
+        <v>-4204.933291932939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19">
+        <v>6127</v>
+      </c>
+      <c r="D19">
         <v>6222</v>
       </c>
-      <c r="D19">
-        <v>-140477.27116784899</v>
-      </c>
       <c r="E19">
-        <v>-140477.27116784899</v>
+        <v>-140477.271167849</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <v>-140477.271167849</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20">
+        <v>6128</v>
+      </c>
+      <c r="D20">
         <v>6223</v>
       </c>
-      <c r="D20">
-        <v>412225.25619447388</v>
-      </c>
       <c r="E20">
-        <v>412225.25619447388</v>
+        <v>412225.2561944739</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <v>412225.2561944739</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21">
+        <v>6129</v>
+      </c>
+      <c r="D21">
         <v>6224</v>
       </c>
-      <c r="D21">
-        <v>-307592.82400768017</v>
-      </c>
       <c r="E21">
-        <v>-307592.82400768017</v>
+        <v>-307592.8240076802</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <v>-307592.8240076802</v>
+      </c>
+      <c r="G21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
         <v>-231541.3612815809</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>-231541.3612815809</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>-419589.61766001489</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>-419589.61766001489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>-419589.6176600149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24">
+        <v>6132</v>
+      </c>
+      <c r="D24">
         <v>6226</v>
       </c>
-      <c r="D24">
-        <v>260989.12714273189</v>
-      </c>
       <c r="E24">
-        <v>260989.04718555891</v>
+        <v>260989.1271427319</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>7.995717297308147E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>260989.0471855589</v>
+      </c>
+      <c r="G24">
+        <v>-0.07995717294397764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25">
+        <v>6133</v>
+      </c>
+      <c r="D25">
         <v>6227</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26">
+        <v>6134</v>
+      </c>
+      <c r="D26">
         <v>6228</v>
       </c>
-      <c r="D26">
-        <v>-22301.096028146279</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>-22301.096028146279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>-22301.09602814628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27">
+        <v>6135</v>
+      </c>
+      <c r="D27">
         <v>6229</v>
       </c>
-      <c r="D27">
-        <v>-12090.473221742781</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>-12090.473221742781</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>-12090.47322174278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28">
+        <v>6137</v>
+      </c>
+      <c r="D28">
         <v>6231</v>
       </c>
-      <c r="D28">
-        <v>-25473.934684991949</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>-25473.934684991949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>-25473.93468499195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29">
+        <v>6145</v>
+      </c>
+      <c r="D29">
         <v>6232</v>
       </c>
-      <c r="D29">
-        <v>-28042.140096146821</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>-28042.140096146821</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>-28042.14009614682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30">
+        <v>6149</v>
+      </c>
+      <c r="D30">
         <v>6233</v>
       </c>
-      <c r="D30">
-        <v>-9440.6682464184341</v>
-      </c>
       <c r="E30">
-        <v>-9440.6682464184341</v>
+        <v>-9440.668246418434</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <v>-9440.668246418434</v>
+      </c>
+      <c r="G30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31">
+        <v>6150</v>
+      </c>
+      <c r="D31">
         <v>6234</v>
       </c>
-      <c r="D31">
-        <v>-27802.940379633252</v>
-      </c>
       <c r="E31">
-        <v>-27803.012530247412</v>
+        <v>-27802.94037963325</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>7.215061415990931E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-27803.01253024741</v>
+      </c>
+      <c r="G31">
+        <v>-0.07215061416354729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32">
+        <v>6151</v>
+      </c>
+      <c r="D32">
         <v>6235</v>
       </c>
-      <c r="D32">
-        <v>7306.2557203366086</v>
-      </c>
       <c r="E32">
-        <v>7306.2557203366086</v>
+        <v>7306.255720336609</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <v>7306.255720336609</v>
+      </c>
+      <c r="G32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33">
+        <v>6152</v>
+      </c>
+      <c r="D33">
         <v>6236</v>
       </c>
-      <c r="D33">
-        <v>35036.720197210248</v>
-      </c>
       <c r="E33">
-        <v>35037.491480930767</v>
+        <v>35036.72019721025</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>-0.77128372051811311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35037.49148093077</v>
+      </c>
+      <c r="G33">
+        <v>0.7712837205181131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="C34">
+        <v>6153</v>
+      </c>
+      <c r="D34">
         <v>6237</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35">
+        <v>38</v>
+      </c>
+      <c r="D35">
         <v>6352</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-19065.78440962829</v>
       </c>
-      <c r="E35">
-        <v>-26530.569675440489</v>
-      </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>7464.7852658121992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-26530.56967544049</v>
+      </c>
+      <c r="G35">
+        <v>-7464.785265812199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36">
+        <v>6156</v>
+      </c>
+      <c r="D36">
         <v>6241</v>
       </c>
-      <c r="D36">
-        <v>-27683.025674022971</v>
-      </c>
       <c r="E36">
-        <v>-28146.346071300701</v>
+        <v>-27683.02567402297</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>463.32039727773008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-28146.3460713007</v>
+      </c>
+      <c r="G36">
+        <v>-463.3203972777301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37">
+        <v>6157</v>
+      </c>
+      <c r="D37">
         <v>6242</v>
       </c>
-      <c r="D37">
-        <v>-27504.993066443891</v>
-      </c>
       <c r="E37">
-        <v>-28146.346071300701</v>
+        <v>-27504.99306644389</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>641.35300485681</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-28146.3460713007</v>
+      </c>
+      <c r="G37">
+        <v>-641.35300485681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38">
+        <v>6158</v>
+      </c>
+      <c r="D38">
         <v>6243</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-27662.16314855143</v>
       </c>
-      <c r="E38">
-        <v>-28146.346071300701</v>
-      </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>484.1829227492708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-28146.3460713007</v>
+      </c>
+      <c r="G38">
+        <v>-484.1829227492708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39">
+        <v>6159</v>
+      </c>
+      <c r="D39">
         <v>6244</v>
       </c>
-      <c r="D39">
-        <v>-27671.628329955911</v>
-      </c>
       <c r="E39">
-        <v>-27671.628329955911</v>
+        <v>-27671.62832995591</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <v>-27671.62832995591</v>
+      </c>
+      <c r="G39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40">
-        <v>-27126.200473452282</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>-27126.200473452282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>-27126.20047345228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41">
-        <v>-5089172.6541301999</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>-5089172.6541301999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>-5089172.6541302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
         <v>1987846.986236074</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>1987846.986236074</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43">
-        <v>-23111.463988908879</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>-23111.463988908879</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>-23111.46398890888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44">
-        <v>30597.917868696659</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>30597.917868696659</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E44">
+        <v>30597.91786869666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45">
+        <v>6169</v>
+      </c>
+      <c r="D45">
         <v>6254</v>
       </c>
-      <c r="D45">
-        <v>-139247.51559617021</v>
-      </c>
       <c r="E45">
-        <v>-139247.51559617021</v>
+        <v>-139247.5155961702</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <v>-139247.5155961702</v>
+      </c>
+      <c r="G45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46">
-        <v>-28145.278065674662</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>-28145.278065674662</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E46">
+        <v>-28145.27806567466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47">
+        <v>6172</v>
+      </c>
+      <c r="D47">
         <v>6257</v>
       </c>
-      <c r="D47">
-        <v>-27685.923919176101</v>
-      </c>
       <c r="E47">
-        <v>-27685.923919176101</v>
+        <v>-27685.9239191761</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <v>-27685.9239191761</v>
+      </c>
+      <c r="G47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48">
+        <v>6176</v>
+      </c>
+      <c r="D48">
         <v>6258</v>
       </c>
-      <c r="D48">
-        <v>-19227.921530231579</v>
-      </c>
       <c r="E48">
-        <v>-19227.921530231579</v>
+        <v>-19227.92153023158</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <v>-19227.92153023158</v>
+      </c>
+      <c r="G48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49">
+        <v>6177</v>
+      </c>
+      <c r="D49">
         <v>6259</v>
       </c>
-      <c r="D49">
-        <v>-1180577.5243581911</v>
-      </c>
       <c r="E49">
-        <v>-1180577.5243581911</v>
+        <v>-1180577.524358191</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <v>-1180577.524358191</v>
+      </c>
+      <c r="G49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50">
-        <v>-29873.609434207781</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>-29873.609434207781</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E50">
+        <v>-29873.60943420778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51">
-        <v>-29876.284964750888</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>-29876.284964750888</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E51">
+        <v>-29876.28496475089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52">
-        <v>-27541.859608668139</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>-27541.859608668139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E52">
+        <v>-27541.85960866814</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53">
+        <v>56</v>
+      </c>
+      <c r="E53">
         <v>-27544.44816213693</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>-27544.44816213693</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54">
+        <v>57</v>
+      </c>
+      <c r="E54">
         <v>-28235.37937930099</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>-28235.37937930099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55">
-        <v>-27008.664528882429</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>-27008.664528882429</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E55">
+        <v>-27008.66452888243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56">
-        <v>-24888.759769288099</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>-24888.759769288099</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>-24888.7597692881</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57">
-        <v>-24372.144251202091</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>-24372.144251202091</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E57">
+        <v>-24372.14425120209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58">
-        <v>-975511.06363978493</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>-975511.06363978493</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E58">
+        <v>-975511.0636397849</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59">
-        <v>34612.372454813201</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>34612.372454813201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E59">
+        <v>34612.3724548132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60">
-        <v>35010.436151150083</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>35010.436151150083</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E60">
+        <v>35010.43615115008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61">
-        <v>36587.285055837187</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>36587.285055837187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E61">
+        <v>36587.28505583719</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62">
-        <v>36566.747586937963</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>36566.747586937963</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E62">
+        <v>36566.74758693796</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63">
-        <v>-11310.557522452469</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>-11310.557522452469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E63">
+        <v>-11310.55752245247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64">
+        <v>67</v>
+      </c>
+      <c r="E64">
         <v>11013.72694840927</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>11013.72694840927</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65">
-        <v>-27874.277641739329</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>-27874.277641739329</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E65">
+        <v>-27874.27764173933</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66">
-        <v>-231593.93942186871</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>-231593.93942186871</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E66">
+        <v>-231593.9394218687</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C67">
+        <v>6191</v>
+      </c>
+      <c r="D67">
         <v>6270</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>954029.02</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F85" si="1">D67-E67</f>
-        <v>954029.02</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C68">
+        <v>6192</v>
+      </c>
+      <c r="D68">
         <v>6271</v>
       </c>
-      <c r="D68">
-        <v>2211996.2599999998</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>2211996.2599999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>2211996.26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C69">
+        <v>6193</v>
+      </c>
+      <c r="D69">
         <v>6272</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>-2478494.92</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>-2478494.92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C70">
+        <v>6194</v>
+      </c>
+      <c r="D70">
         <v>6273</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>31001.41</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>31001.41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C71">
+        <v>6195</v>
+      </c>
+      <c r="D71">
         <v>6274</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C72">
+        <v>6196</v>
+      </c>
+      <c r="D72">
         <v>6275</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>-175641.89</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>-175641.89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C73">
+        <v>6197</v>
+      </c>
+      <c r="D73">
         <v>6276</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>-167122.65</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>-167122.65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C74">
+        <v>6198</v>
+      </c>
+      <c r="D74">
         <v>6277</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>1442409.33</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>1442409.33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75">
+        <v>78</v>
+      </c>
+      <c r="E75">
         <v>13159803.23</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>13159803.23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76">
-        <v>51059320.140000001</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>51059320.140000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E76">
+        <v>51059320.14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77">
-        <v>39557590.770000003</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>39557590.770000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E77">
+        <v>39557590.77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78">
+        <v>81</v>
+      </c>
+      <c r="D78">
         <v>6204</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>13159803.23</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>13159803.23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79">
+        <v>82</v>
+      </c>
+      <c r="D79">
         <v>6206</v>
       </c>
-      <c r="D79">
-        <v>1152758.7437711961</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>1152758.7437711961</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>1152758.743771196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80">
-        <v>-10410.816678044501</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>-10410.816678044501</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E80">
+        <v>-10410.8166780445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81">
+        <v>84</v>
+      </c>
+      <c r="E81">
         <v>-68421.22695063315</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>-68421.22695063315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82">
+        <v>85</v>
+      </c>
+      <c r="E82">
         <v>-71021.73203032311</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>-71021.73203032311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83">
-        <v>-28013.758190080931</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>-28013.758190080931</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E83">
+        <v>-28013.75819008093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84">
+        <v>87</v>
+      </c>
+      <c r="D84">
         <v>6353</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>124523.5382133026</v>
       </c>
-      <c r="E84">
-        <v>71442.579892030146</v>
-      </c>
       <c r="F84">
-        <f t="shared" si="1"/>
-        <v>53080.958321272454</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71442.57989203015</v>
+      </c>
+      <c r="G84">
+        <v>-53080.95832127247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85">
+        <v>88</v>
+      </c>
+      <c r="D85">
         <v>6354</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>18974.68015478415</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="1"/>
-        <v>18974.68015478415</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>